--- a/たぬきっち設計図.xlsx
+++ b/たぬきっち設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\source\repos\Tanuki_Chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C669D-5130-4EC0-A50C-D236418AB521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BBEA2-6CB8-4CAC-8CFC-1EF2CBD2A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="1590" windowWidth="20415" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:T17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>

--- a/たぬきっち設計図.xlsx
+++ b/たぬきっち設計図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micro\source\repos\Tanuki_Chi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264BBEA2-6CB8-4CAC-8CFC-1EF2CBD2A55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025000DD-D011-40E2-9C5B-CA836EE99DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="1590" windowWidth="20415" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TanukiController</t>
   </si>
@@ -33,10 +33,19 @@
     <t>TanukiModel</t>
   </si>
   <si>
-    <t>TanukiView</t>
+    <t>HayakawaTazuna</t>
   </si>
   <si>
-    <t>HayakawaTazuna</t>
+    <t>TanukiView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TanukiViewBgImg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TanukiViewNoBgImg</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -67,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -179,9 +188,38 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="dotted">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -194,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -208,6 +246,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -488,15 +529,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T17"/>
+  <dimension ref="B2:AB17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:28">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,48 +543,52 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
-      <c r="P2" s="1" t="s">
-        <v>2</v>
+      <c r="T2" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
-    </row>
-    <row r="3" spans="2:20">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="2:28">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="T3" s="4"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="2:28">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="2:28">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -558,13 +601,20 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="M5" s="7"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="2:28">
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -575,13 +625,13 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="T6" s="4"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:28">
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -592,80 +642,164 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="T7" s="7"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="2:28">
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="T8" s="12"/>
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="2:28">
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="T9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="2:28">
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="T10" s="13"/>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="2:28">
       <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="T11" s="14"/>
+      <c r="W11" s="14"/>
+    </row>
+    <row r="12" spans="2:28">
       <c r="I12" s="11"/>
       <c r="J12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="P12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="3"/>
+      <c r="W12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="2:28">
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="6"/>
+    </row>
+    <row r="14" spans="2:28">
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
+    </row>
+    <row r="15" spans="2:28">
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="6"/>
+    </row>
+    <row r="16" spans="2:28">
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="10:14">
+      <c r="P16" s="4"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="6"/>
+    </row>
+    <row r="17" spans="10:28">
       <c r="J17" s="7"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="9"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
